--- a/Final Project/api/data/imports/sample_securities.xlsx
+++ b/Final Project/api/data/imports/sample_securities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/227940f08aeb2ad5/Documents/GitHub/CIDM6330/Final Project/api/data/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_95321EC297D9AE3F862F1F6E6F2C67AD61B443B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5523112-80AD-43B8-9713-D18EC036F135}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_95321EC297D9AE3F862F1F6E6F2C67AD61B443B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3A2140D-F752-41BF-894B-EF9C362D1417}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,13 +644,12 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -707,6 +706,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,7 +1002,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1072,7 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>0.68766896</v>
       </c>
     </row>
@@ -1098,7 +1101,7 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>0.73574119000000004</v>
       </c>
     </row>
@@ -1127,7 +1130,7 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>0.73975701000000005</v>
       </c>
     </row>
@@ -1156,7 +1159,7 @@
       <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>0.81673372</v>
       </c>
     </row>
@@ -1185,7 +1188,7 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>0.82695759000000002</v>
       </c>
     </row>
@@ -1214,7 +1217,7 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>0.69726100999999996</v>
       </c>
     </row>
@@ -1243,7 +1246,7 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>0.72423888000000003</v>
       </c>
     </row>
@@ -1272,7 +1275,7 @@
       <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>0.68916372000000004</v>
       </c>
     </row>
@@ -1301,7 +1304,7 @@
       <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>0.66852803000000005</v>
       </c>
     </row>
@@ -1330,7 +1333,7 @@
       <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>0.77620517</v>
       </c>
     </row>
@@ -1359,7 +1362,7 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>0.81817625999999999</v>
       </c>
     </row>
@@ -1388,7 +1391,7 @@
       <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>0.80704381999999997</v>
       </c>
     </row>
@@ -1417,7 +1420,7 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>0.81090552999999999</v>
       </c>
     </row>
@@ -1446,7 +1449,7 @@
       <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>0.72808748999999995</v>
       </c>
     </row>
@@ -1475,7 +1478,7 @@
       <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>0.72518053000000005</v>
       </c>
     </row>
@@ -1496,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -1504,7 +1507,7 @@
       <c r="H17" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>0.22654861000000001</v>
       </c>
     </row>
